--- a/solr/solrMetrics/q4/q4Metrics.xlsx
+++ b/solr/solrMetrics/q4/q4Metrics.xlsx
@@ -47,7 +47,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
-    <t xml:space="preserve">Q = Q1</t>
+    <t xml:space="preserve">Q = Q4</t>
   </si>
   <si>
     <t xml:space="preserve">Precision @</t>
@@ -747,11 +747,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="36706803"/>
-        <c:axId val="41634433"/>
+        <c:axId val="33203796"/>
+        <c:axId val="54559028"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36706803"/>
+        <c:axId val="33203796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +812,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41634433"/>
+        <c:crossAx val="54559028"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -820,7 +820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41634433"/>
+        <c:axId val="54559028"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36706803"/>
+        <c:crossAx val="33203796"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1415,11 +1415,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="62738829"/>
-        <c:axId val="30711551"/>
+        <c:axId val="90152005"/>
+        <c:axId val="19342921"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62738829"/>
+        <c:axId val="90152005"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1488,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30711551"/>
+        <c:crossAx val="19342921"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30711551"/>
+        <c:axId val="19342921"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1539,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62738829"/>
+        <c:crossAx val="90152005"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1741,11 +1741,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="49108794"/>
-        <c:axId val="1330381"/>
+        <c:axId val="99667786"/>
+        <c:axId val="510162"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49108794"/>
+        <c:axId val="99667786"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1814,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1330381"/>
+        <c:crossAx val="510162"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,7 +1822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1330381"/>
+        <c:axId val="510162"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +1901,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49108794"/>
+        <c:crossAx val="99667786"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2135,11 +2135,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="48995374"/>
-        <c:axId val="4745608"/>
+        <c:axId val="86541811"/>
+        <c:axId val="43284231"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48995374"/>
+        <c:axId val="86541811"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2208,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4745608"/>
+        <c:crossAx val="43284231"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2216,7 +2216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4745608"/>
+        <c:axId val="43284231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2295,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48995374"/>
+        <c:crossAx val="86541811"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>632160</xdr:colOff>
+      <xdr:colOff>631800</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2370,7 +2370,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1440000" y="4924440"/>
-        <a:ext cx="5107680" cy="3151440"/>
+        <a:ext cx="5107320" cy="3151080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2389,9 +2389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>427320</xdr:colOff>
+      <xdr:colOff>426960</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2400,7 +2400,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7053480" y="4857480"/>
-        <a:ext cx="5119920" cy="3151440"/>
+        <a:ext cx="5123520" cy="3151080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2424,9 +2424,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>792360</xdr:colOff>
+      <xdr:colOff>792000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2434,8 +2434,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4649760" y="2724120"/>
-        <a:ext cx="4366440" cy="2665440"/>
+        <a:off x="4650840" y="2724120"/>
+        <a:ext cx="4371480" cy="2665080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2454,9 +2454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>801000</xdr:colOff>
+      <xdr:colOff>800640</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2465,7 +2465,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="200160" y="2724120"/>
-        <a:ext cx="4351320" cy="2665440"/>
+        <a:ext cx="4350960" cy="2665080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2485,11 +2485,11 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="9.51"/>
@@ -2989,9 +2989,7 @@
       <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4" t="n">
         <v>0</v>
       </c>
@@ -3042,9 +3040,7 @@
       <c r="A13" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4" t="n">
         <v>1</v>
       </c>
@@ -3271,7 +3267,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="7.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.75"/>
